--- a/FAO-dsd/DSD_FI_PRODUCTION.xlsx
+++ b/FAO-dsd/DSD_FI_PRODUCTION.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>Dimension</t>
   </si>
@@ -71,9 +71,6 @@
     <t>YEAR</t>
   </si>
   <si>
-    <t>QUANTITY_SYMBOL</t>
-  </si>
-  <si>
     <t>CL_FI_SYMBOL</t>
   </si>
   <si>
@@ -150,6 +147,21 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>CL_FI_UNIT</t>
+  </si>
+  <si>
+    <t>UNIT</t>
+  </si>
+  <si>
+    <t>SYMBOL</t>
   </si>
 </sst>
 </file>
@@ -549,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,12 +581,12 @@
   <sheetData>
     <row r="1" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
@@ -586,16 +598,16 @@
         <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -604,13 +616,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" s="5"/>
       <c r="P3"/>
@@ -618,7 +630,7 @@
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
@@ -627,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" s="5"/>
       <c r="P4"/>
@@ -641,7 +653,7 @@
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
@@ -653,10 +665,10 @@
         <v>12</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" s="5"/>
       <c r="P5"/>
@@ -664,7 +676,7 @@
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1</v>
@@ -673,13 +685,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" s="5"/>
       <c r="P6"/>
@@ -687,7 +699,7 @@
     </row>
     <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>13</v>
@@ -697,57 +709,80 @@
       </c>
       <c r="D7" s="1"/>
       <c r="F7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" s="5"/>
       <c r="P7"/>
       <c r="Q7"/>
     </row>
     <row r="8" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+    </row>
+    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="F10" s="3"/>
-    </row>
     <row r="11" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="2"/>
+      <c r="A11" s="2"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/FAO-dsd/DSD_FI_PRODUCTION.xlsx
+++ b/FAO-dsd/DSD_FI_PRODUCTION.xlsx
@@ -116,9 +116,6 @@
     <t>CL_FI_COUNTRY_GROUPS</t>
   </si>
   <si>
-    <t>CL_FI_AREA_GROUPS</t>
-  </si>
-  <si>
     <t>3ALPHA_CODE</t>
   </si>
   <si>
@@ -162,6 +159,9 @@
   </si>
   <si>
     <t>SYMBOL</t>
+  </si>
+  <si>
+    <t>CL_FI_WATERAREA_GROUPS</t>
   </si>
 </sst>
 </file>
@@ -564,7 +564,7 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,7 +601,7 @@
         <v>16</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" s="4"/>
     </row>
@@ -622,7 +622,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" s="5"/>
       <c r="P3"/>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" s="5"/>
       <c r="P4"/>
@@ -668,7 +668,7 @@
         <v>26</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" s="5"/>
       <c r="P5"/>
@@ -685,10 +685,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>22</v>
@@ -709,7 +709,7 @@
       </c>
       <c r="D7" s="1"/>
       <c r="F7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" s="5"/>
       <c r="P7"/>
@@ -720,19 +720,19 @@
         <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" s="5"/>
       <c r="P8"/>
@@ -746,18 +746,18 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2</v>
@@ -769,7 +769,7 @@
         <v>26</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">

--- a/FAO-dsd/DSD_FI_PRODUCTION.xlsx
+++ b/FAO-dsd/DSD_FI_PRODUCTION.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\USR\Manuals\2016\FIPS\SDMX\DSD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\USR\Manuals\2021\NFIS\Refdata\DSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,14 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>Dimension</t>
   </si>
   <si>
-    <t>SPECIES</t>
-  </si>
-  <si>
     <t>Attribute</t>
   </si>
   <si>
@@ -53,24 +50,6 @@
     <t>Time Dimension</t>
   </si>
   <si>
-    <t>SOURCE</t>
-  </si>
-  <si>
-    <t>COUNTRY</t>
-  </si>
-  <si>
-    <t>AREA</t>
-  </si>
-  <si>
-    <t>QUANTITY</t>
-  </si>
-  <si>
-    <t>CL_FI_PRODUCTION_SOURCE</t>
-  </si>
-  <si>
-    <t>YEAR</t>
-  </si>
-  <si>
     <t>CL_FI_SYMBOL</t>
   </si>
   <si>
@@ -116,9 +95,6 @@
     <t>CL_FI_COUNTRY_GROUPS</t>
   </si>
   <si>
-    <t>3ALPHA_CODE</t>
-  </si>
-  <si>
     <t>CL_FI_SPECIES_GROUPS</t>
   </si>
   <si>
@@ -155,19 +131,46 @@
     <t>CL_FI_UNIT</t>
   </si>
   <si>
-    <t>UNIT</t>
-  </si>
-  <si>
     <t>SYMBOL</t>
   </si>
   <si>
     <t>CL_FI_WATERAREA_GROUPS</t>
+  </si>
+  <si>
+    <t>CL_FI_PRODUCTION_SOURCE_DET</t>
+  </si>
+  <si>
+    <t>COUNTRY.UN_CODE</t>
+  </si>
+  <si>
+    <t>AREA.CODE</t>
+  </si>
+  <si>
+    <t>PRODUCTION_SOURCE_DET.CODE</t>
+  </si>
+  <si>
+    <t>SPECIES.ALPHA_3_CODE</t>
+  </si>
+  <si>
+    <t>PERIOD</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>MEASURE</t>
+  </si>
+  <si>
+    <t>STAUS</t>
+  </si>
+  <si>
+    <t>3A_CODE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -341,7 +344,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -376,7 +379,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -564,13 +567,13 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="4" width="32.28515625" style="7" customWidth="1"/>
     <col min="5" max="5" width="18.140625" customWidth="1"/>
@@ -581,48 +584,48 @@
   <sheetData>
     <row r="1" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G3" s="5"/>
       <c r="P3"/>
@@ -630,22 +633,22 @@
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G4" s="5"/>
       <c r="P4"/>
@@ -653,22 +656,22 @@
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G5" s="5"/>
       <c r="P5"/>
@@ -676,22 +679,22 @@
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G6" s="5"/>
       <c r="P6"/>
@@ -699,17 +702,17 @@
     </row>
     <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1"/>
       <c r="F7" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G7" s="5"/>
       <c r="P7"/>
@@ -717,22 +720,22 @@
     </row>
     <row r="8" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G8" s="5"/>
       <c r="P8"/>
@@ -740,36 +743,36 @@
     </row>
     <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">

--- a/FAO-dsd/DSD_FI_PRODUCTION.xlsx
+++ b/FAO-dsd/DSD_FI_PRODUCTION.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\USR\Manuals\2021\NFIS\Refdata\DSD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unfao-my.sharepoint.com/personal/sara_montanaro_fao_org/Documents/DISSEMINATED_CSV/2024/GlobalProduction_2024.1.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_2D28B2D2886775EAEC912923E0A64D6BE8329EE8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{543E183E-4BC4-40FB-A87B-97FD5FE3A8F4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5745" windowHeight="4425"/>
+    <workbookView xWindow="3330" yWindow="5955" windowWidth="22050" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
@@ -50,9 +51,6 @@
     <t>Time Dimension</t>
   </si>
   <si>
-    <t>CL_FI_SYMBOL</t>
-  </si>
-  <si>
     <t>Order</t>
   </si>
   <si>
@@ -110,9 +108,6 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>FAO statistical symbol</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -165,12 +160,18 @@
   </si>
   <si>
     <t>3A_CODE</t>
+  </si>
+  <si>
+    <t>CL_FI_SYMBOL_SDMX</t>
+  </si>
+  <si>
+    <t>FAO SDMX statistical symbol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -246,17 +247,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -266,10 +262,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -286,7 +281,7 @@
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -563,11 +558,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,217 +570,198 @@
     <col min="1" max="1" width="7.85546875" customWidth="1"/>
     <col min="2" max="2" width="31.85546875" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" style="4" customWidth="1"/>
     <col min="5" max="5" width="18.140625" customWidth="1"/>
     <col min="6" max="6" width="37.7109375" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" customWidth="1"/>
-    <col min="8" max="17" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7"/>
+      <c r="F7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
+    </row>
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-    </row>
-    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-    </row>
-    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-    </row>
-    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="3" t="s">
+    </row>
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-    </row>
-    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="F7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-    </row>
-    <row r="8" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-    </row>
-    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
